--- a/Desarrollo/SAC/SAC_ER.xlsx
+++ b/Desarrollo/SAC/SAC_ER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grupo-3\Desarrollo\SAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Grupo-3\Desarrollo\SAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F3673-3442-4779-B060-D0D8968835A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ITERACION1" sheetId="1" r:id="rId1"/>
@@ -49,7 +48,7 @@
     <definedName name="Suscriptores">Prototipos!$R$99</definedName>
     <definedName name="Ventas">Prototipos!$I$126</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -59,10 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
-  <si>
-    <t>LISTA DE REQUISITOS DEL SISTEMA CULQI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -82,48 +78,18 @@
     <t>RQ01</t>
   </si>
   <si>
-    <t>Checkout</t>
-  </si>
-  <si>
-    <t>Ingresar Datos del usuario</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al usuario rellenar los campos de número de tarjeta, fecha de vencimiento de la tarjeta, CCI, Nombre completo, correo electrónico.</t>
-  </si>
-  <si>
     <t>RQ02</t>
   </si>
   <si>
-    <t>Elegir tarjeta</t>
-  </si>
-  <si>
     <t>RQ03</t>
   </si>
   <si>
-    <t>Mostrar monto a pagar</t>
-  </si>
-  <si>
-    <t>El sistema debe crear un botón donde se muestre el monto a pagar y que inicialice el proceso de pago.</t>
-  </si>
-  <si>
     <t>RQ04</t>
   </si>
   <si>
-    <t>Mostrar información de compra</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar el número de orden de la compra y una descripción: nombre del producto, cantidad del producto y el precio</t>
-  </si>
-  <si>
     <t>RQ05</t>
   </si>
   <si>
-    <t>Mostrar información del negocio</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar el nombre del negocio y una imagen del negocio.</t>
-  </si>
-  <si>
     <t>RQ06</t>
   </si>
   <si>
@@ -157,15 +123,6 @@
     <t>RQ16</t>
   </si>
   <si>
-    <t>RQ77</t>
-  </si>
-  <si>
-    <t>Realizar Pago</t>
-  </si>
-  <si>
-    <t>El sistema debe establecer un botón en la parte inferior con el texto “Pagar” y el monto total a pagar.</t>
-  </si>
-  <si>
     <t>Requisito</t>
   </si>
   <si>
@@ -178,37 +135,9 @@
     <t xml:space="preserve">Prototipo </t>
   </si>
   <si>
-    <t>Usuario comprador, Plugin de Culqi</t>
-  </si>
-  <si>
-    <t>CU001-Concretando compra</t>
-  </si>
-  <si>
     <t>Prototipo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">El sistema debe permitir al usuario elegir la tarjeta que dispone sea: Visa, Mastercard, Diners Club, American Express, UnionPay, Ripley, CMR, oh!, Cencosud y Presta, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>por medio de un lista despeglable.</t>
-    </r>
-  </si>
-  <si>
     <t>Prototipo 1</t>
   </si>
   <si>
@@ -248,9 +177,6 @@
     <t>Calendarizar los eventos</t>
   </si>
   <si>
-    <t>El sistema debe permitir al usuario visualizar los eventos del mes en un calendario.</t>
-  </si>
-  <si>
     <t>Asistencia de clases</t>
   </si>
   <si>
@@ -339,13 +265,130 @@
   </si>
   <si>
     <t>El sistema debe permitir al usuario eliminar a un miembro de un célula. Este caso se da si es que pasa a otra zona o cambia de iglesia.</t>
+  </si>
+  <si>
+    <t>RQ17</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario actualizar nombres, apellidos, edad, fecha de nacimiento, teléfono y dirección de un miembro de célula.</t>
+  </si>
+  <si>
+    <t>RQ18</t>
+  </si>
+  <si>
+    <t>Modificar detalles del miembro de célula</t>
+  </si>
+  <si>
+    <t>Asistencia Celuar</t>
+  </si>
+  <si>
+    <t>Asignar el número de miembro</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario asignar el número único de membresía a un miembro que se bautiza.</t>
+  </si>
+  <si>
+    <t>RQ19</t>
+  </si>
+  <si>
+    <t>Notificar lista de miembros a bautizarse</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario notificar a la Oficina Jetro los nombres de los miembros que se van a bautizar.</t>
+  </si>
+  <si>
+    <t>RQ20</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario visualizar los miembros de toda la iglesia que se van a bautizar.</t>
+  </si>
+  <si>
+    <t>RQ21</t>
+  </si>
+  <si>
+    <t>Registrar eventos de la iglesia</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario registrar un evento que se realizará en la iglesia registrando fecha, hora de inicio, lugar, nombre del evento, si hay algún costo, si es un evento de zona o es un evento de toda la iglesia.</t>
+  </si>
+  <si>
+    <t>RQ22</t>
+  </si>
+  <si>
+    <t>Registrar recordatorios</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario registrar un recordatorio que será para los líderes de célula.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario visualizar los eventos del mes en un calendario. Podiendo ver en cada día los detalles de los eventos.</t>
+  </si>
+  <si>
+    <t>LISTA DE REQUISITOS DEL SISTEMA DE ASISTENCIA CONGREGACIONAL V2.0</t>
+  </si>
+  <si>
+    <t>CU004-Calendarizando eventos</t>
+  </si>
+  <si>
+    <t>CU002-Gestionando detalles del miembro de célula</t>
+  </si>
+  <si>
+    <t>CU003-Notificando recordatorios</t>
+  </si>
+  <si>
+    <t>CU005-Registrando asistencia de clase</t>
+  </si>
+  <si>
+    <t>CU001-Registrando asistencia de célula</t>
+  </si>
+  <si>
+    <t>RQ23</t>
+  </si>
+  <si>
+    <t>Oficiona Jetro, Líder de célula</t>
+  </si>
+  <si>
+    <t>Listar todos los miembros a bautizarse</t>
+  </si>
+  <si>
+    <t>Listar las clases</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario visualizar las clases que se dictan en el periodo del año: Nombre de la clase, nivel, horario, maestro y lugar que se dicta.</t>
+  </si>
+  <si>
+    <t>CU006-Registrando clase</t>
+  </si>
+  <si>
+    <t>CU007-Generando reportes</t>
+  </si>
+  <si>
+    <t>CU008-Dando permisos de registro de asistencia</t>
+  </si>
+  <si>
+    <t>CU009-Mantenimiento de líder de célula</t>
+  </si>
+  <si>
+    <t>CU010-Mantenimiento de miembro de célula</t>
+  </si>
+  <si>
+    <t>CU011-Notificando miembros a bautizarse</t>
+  </si>
+  <si>
+    <t>CU012-Asignando número de miembro</t>
+  </si>
+  <si>
+    <t>CU013-Registrando recordatorios</t>
+  </si>
+  <si>
+    <t>CU014-Listando clases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -403,14 +446,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
@@ -438,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -512,11 +547,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,9 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,9 +628,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,12 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -602,12 +656,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -617,13 +665,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,19 +694,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,7 +811,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,33 +1144,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875"/>
-    <col min="2" max="2" width="6.77734375"/>
-    <col min="3" max="3" width="24.33203125"/>
-    <col min="4" max="4" width="20.5546875"/>
-    <col min="5" max="5" width="38.77734375"/>
-    <col min="6" max="6" width="42.33203125"/>
-    <col min="7" max="26" width="8.5546875"/>
+    <col min="1" max="1" width="3.5703125"/>
+    <col min="2" max="2" width="6.7109375"/>
+    <col min="3" max="3" width="24.28515625"/>
+    <col min="4" max="4" width="20.5703125"/>
+    <col min="5" max="5" width="38.7109375"/>
+    <col min="6" max="6" width="42.28515625"/>
+    <col min="7" max="26" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1132,7 +1192,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1160,22 +1220,22 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
@@ -1198,22 +1258,22 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1236,22 +1296,22 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="2"/>
@@ -1274,22 +1334,22 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
@@ -1312,22 +1372,22 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="2"/>
@@ -1350,22 +1410,22 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="2"/>
@@ -1388,22 +1448,22 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
@@ -1426,22 +1486,22 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2"/>
@@ -1464,22 +1524,22 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2"/>
@@ -1502,22 +1562,22 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
@@ -1540,22 +1600,22 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
@@ -1578,22 +1638,22 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
@@ -1616,22 +1676,22 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
@@ -1654,22 +1714,22 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
@@ -1692,22 +1752,22 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
@@ -1730,22 +1790,22 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="2"/>
@@ -1768,22 +1828,22 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="2"/>
@@ -1805,13 +1865,23 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="B20" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5"/>
       <c r="I20" s="2"/>
@@ -1833,13 +1903,23 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
       <c r="I21" s="2"/>
@@ -1861,13 +1941,23 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1889,13 +1979,23 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="B23" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1917,13 +2017,23 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="5"/>
       <c r="I24" s="2"/>
@@ -1945,13 +2055,23 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1973,13 +2093,23 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2001,13 +2131,13 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2029,13 +2159,13 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2057,13 +2187,13 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="2"/>
       <c r="H29" s="5"/>
       <c r="I29" s="2"/>
@@ -2085,13 +2215,13 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="5"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2113,13 +2243,13 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="2"/>
       <c r="H31" s="5"/>
       <c r="I31" s="2"/>
@@ -2141,13 +2271,13 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="5"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2169,13 +2299,13 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="5"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2197,13 +2327,13 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="2"/>
@@ -2225,13 +2355,13 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="2"/>
@@ -2253,13 +2383,13 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="2"/>
@@ -2281,13 +2411,13 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="2"/>
       <c r="H37" s="5"/>
       <c r="I37" s="2"/>
@@ -2309,13 +2439,13 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="2"/>
       <c r="H38" s="5"/>
       <c r="I38" s="2"/>
@@ -2337,13 +2467,13 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="2"/>
       <c r="H39" s="5"/>
       <c r="I39" s="2"/>
@@ -2365,13 +2495,13 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="2"/>
       <c r="H40" s="5"/>
       <c r="I40" s="2"/>
@@ -2393,13 +2523,13 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="2"/>
@@ -2421,13 +2551,13 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="2"/>
       <c r="H42" s="5"/>
       <c r="I42" s="2"/>
@@ -2449,13 +2579,13 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="2"/>
@@ -2477,13 +2607,13 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="2"/>
@@ -2505,13 +2635,13 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="2"/>
@@ -2533,13 +2663,13 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="2"/>
       <c r="H46" s="5"/>
       <c r="I46" s="2"/>
@@ -2561,13 +2691,13 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="2"/>
@@ -2589,13 +2719,13 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="2"/>
@@ -2617,13 +2747,13 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="2"/>
@@ -2645,13 +2775,13 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="2"/>
       <c r="H50" s="5"/>
       <c r="I50" s="2"/>
@@ -2673,13 +2803,13 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="26"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="5"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2701,13 +2831,13 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="26"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="5"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2729,13 +2859,13 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="26"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="5"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2757,13 +2887,13 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="26"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="5"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2785,13 +2915,13 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="26"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="5"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -2813,13 +2943,13 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="26"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="5"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2841,13 +2971,13 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="26"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="5"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2869,13 +2999,13 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="26"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="5"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2897,13 +3027,13 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="26"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="2"/>
       <c r="H59" s="5"/>
       <c r="I59" s="2"/>
@@ -2925,13 +3055,13 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="26"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="5"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2953,13 +3083,13 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="26"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="5"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2981,13 +3111,13 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="26"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="5"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3009,13 +3139,13 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="26"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="5"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3037,13 +3167,13 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="26"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="5"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3065,13 +3195,13 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="26"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="5"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3093,13 +3223,13 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="26"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="5"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3121,13 +3251,13 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="26"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="5"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3149,13 +3279,13 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="26"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="5"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3177,13 +3307,13 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="26"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="5"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3205,13 +3335,13 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="26"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="5"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3233,13 +3363,13 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="26"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -3261,13 +3391,13 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="26"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="5"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3289,13 +3419,13 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="26"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="5"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -3317,13 +3447,13 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="26"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="5"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3345,13 +3475,13 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="26"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="5"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -3373,13 +3503,13 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="26"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="5"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3401,13 +3531,13 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="26"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="5"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3429,13 +3559,13 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="26"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="5"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3457,13 +3587,13 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="26"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="5"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3485,13 +3615,13 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="22"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="20"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3514,48 +3644,48 @@
       <c r="Z80" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:F3"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875"/>
-    <col min="2" max="2" width="6.109375"/>
-    <col min="3" max="3" width="26.44140625"/>
-    <col min="4" max="4" width="31.44140625"/>
+    <col min="1" max="1" width="3.5703125"/>
+    <col min="2" max="2" width="6.140625"/>
+    <col min="3" max="3" width="26.42578125"/>
+    <col min="4" max="4" width="31.42578125"/>
     <col min="5" max="5" width="50"/>
-    <col min="6" max="6" width="36.88671875"/>
-    <col min="7" max="7" width="35.88671875"/>
-    <col min="8" max="8" width="12.109375"/>
-    <col min="9" max="9" width="15.6640625"/>
-    <col min="10" max="26" width="8.5546875"/>
+    <col min="6" max="6" width="36.85546875"/>
+    <col min="7" max="7" width="35.85546875"/>
+    <col min="8" max="8" width="12.140625"/>
+    <col min="9" max="9" width="15.7109375"/>
+    <col min="10" max="26" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3575,15 +3705,15 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3603,31 +3733,31 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>5</v>
+      <c r="E3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3647,31 +3777,31 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
+    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="46">
+        <v>30</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="38">
         <v>1</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>41</v>
+      <c r="I4" s="40" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -3691,22 +3821,26 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="69" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
+    <row r="5" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3725,22 +3859,32 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
+    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="45"/>
+        <v>33</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="38">
+        <v>2</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>25</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3759,22 +3903,26 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="45"/>
+    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3793,22 +3941,32 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="45"/>
+        <v>35</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="38">
+        <v>3</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>25</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3827,22 +3985,26 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="47"/>
+    <row r="9" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3861,16 +4023,32 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="44"/>
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="36">
+        <v>3</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3889,16 +4067,32 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="38">
+        <v>1</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>25</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3917,16 +4111,26 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+    <row r="12" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3945,16 +4149,32 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+    <row r="13" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="36">
+        <v>2</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -3973,16 +4193,32 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="38">
+        <v>2</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4001,16 +4237,26 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -4029,16 +4275,32 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="36">
+        <v>3</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -4057,16 +4319,32 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+    <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="43">
+        <v>3</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -4085,16 +4363,26 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -4113,16 +4401,32 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="44"/>
+    <row r="19" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="38">
+        <v>3</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -4141,16 +4445,26 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+    <row r="20" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -4169,16 +4483,32 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="36">
+        <v>4</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -4197,16 +4527,32 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="44"/>
+    <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="38">
+        <v>4</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4225,16 +4571,26 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+    <row r="23" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -4253,16 +4609,32 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="90" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
+      <c r="B24" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="38">
+        <v>3</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -4281,16 +4653,26 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="B25" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -4309,16 +4691,32 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
+      <c r="B26" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="36">
+        <v>2</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -4337,15 +4735,15 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="42"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4365,16 +4763,16 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4393,16 +4791,16 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -4421,16 +4819,16 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4449,16 +4847,16 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -4477,16 +4875,16 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -4505,16 +4903,16 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -4533,16 +4931,16 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -4561,16 +4959,16 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -4589,16 +4987,16 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4617,16 +5015,16 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -4645,16 +5043,16 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -4673,16 +5071,16 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -4701,16 +5099,16 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -4729,16 +5127,16 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -4757,16 +5155,16 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="42"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4785,16 +5183,16 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -4813,16 +5211,16 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -4841,16 +5239,16 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -4869,16 +5267,16 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -4897,16 +5295,16 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="42"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4925,16 +5323,16 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4953,16 +5351,16 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -4981,16 +5379,16 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -5009,15 +5407,15 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="42"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
       <c r="I51" s="42"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5037,16 +5435,16 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -5065,16 +5463,16 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -5093,16 +5491,16 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -5121,16 +5519,16 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -5149,16 +5547,16 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="43"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -5177,16 +5575,16 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="26"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -5205,16 +5603,16 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="26"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -5233,16 +5631,16 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="26"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -5261,16 +5659,16 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="28"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -5289,16 +5687,16 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="28"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -5317,16 +5715,16 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -5345,16 +5743,16 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -5373,16 +5771,16 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -5401,16 +5799,16 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -5429,16 +5827,16 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -5457,16 +5855,16 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -5485,16 +5883,16 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -5513,16 +5911,16 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -5541,16 +5939,16 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -5569,16 +5967,16 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -5597,16 +5995,16 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -5625,16 +6023,16 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -5653,16 +6051,16 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -5681,1157 +6079,1019 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="G10:G18"/>
-    <mergeCell ref="H10:H18"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
+  <mergeCells count="77">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="I37:I41"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="G32:G36"/>
     <mergeCell ref="H32:H36"/>
     <mergeCell ref="I32:I36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" location="prototipo1" display="Prototipo" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I4" location="prototipo1" display="Prototipo"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6839,25 +7099,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625"/>
-    <col min="2" max="2" width="39.6640625"/>
-    <col min="3" max="6" width="9.5546875"/>
-    <col min="7" max="26" width="8.5546875"/>
+    <col min="1" max="1" width="6.42578125"/>
+    <col min="2" max="2" width="39.7109375"/>
+    <col min="3" max="6" width="9.5703125"/>
+    <col min="7" max="26" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -6884,1005 +7144,1005 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Desarrollo/SAC/SAC_ER.xlsx
+++ b/Desarrollo/SAC/SAC_ER.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Grupo-3\Desarrollo\SAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVIN\CICLO VIII\Gestion de configuracion y mantenimiento\proyecto\Grupo-3\Desarrollo\SAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2CC87F-B0FB-49E4-A216-FDDC27FF575D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITERACION1" sheetId="1" r:id="rId1"/>
     <sheet name="ITERACION2" sheetId="2" r:id="rId2"/>
-    <sheet name="Prototipos" sheetId="3" r:id="rId3"/>
+    <sheet name="prototipo" sheetId="3" r:id="rId3"/>
+    <sheet name="Matriz RQ vs RQ" sheetId="4" r:id="rId4"/>
+    <sheet name="Matriz CU vs RQ" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">ITERACION1!$B$3:$F$80</definedName>
@@ -31,22 +34,22 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">ITERACION1!$B$3:$F$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">ITERACION1!$B$3:$F$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">ITERACION1!$B$3:$F$3</definedName>
-    <definedName name="activarcomercio">Prototipos!$J$32</definedName>
-    <definedName name="confirmaciondecorreo">Prototipos!$B$67</definedName>
-    <definedName name="Dashboard">Prototipos!$B$100</definedName>
-    <definedName name="Depositos">Prototipos!$B$125</definedName>
-    <definedName name="Desarrollador">Prototipos!$B$173</definedName>
-    <definedName name="Eventos">Prototipos!$B$149</definedName>
-    <definedName name="iniciodeusuario">Prototipos!$B$32</definedName>
-    <definedName name="mostrandoinformacion">Prototipos!$B$99</definedName>
-    <definedName name="nuevocomercio">Prototipos!$D$2</definedName>
-    <definedName name="nuevoplan">Prototipos!$F$67</definedName>
-    <definedName name="panelmenu">Prototipos!$P$69</definedName>
-    <definedName name="Planes">Prototipos!$B$124</definedName>
-    <definedName name="prototipo1">Prototipos!$B$2</definedName>
-    <definedName name="registro">Prototipos!$E$32</definedName>
-    <definedName name="Suscriptores">Prototipos!$R$99</definedName>
-    <definedName name="Ventas">Prototipos!$I$126</definedName>
+    <definedName name="activarcomercio">prototipo!$J$32</definedName>
+    <definedName name="confirmaciondecorreo">prototipo!$B$67</definedName>
+    <definedName name="Dashboard">prototipo!$B$100</definedName>
+    <definedName name="Depositos">prototipo!$B$125</definedName>
+    <definedName name="Desarrollador">prototipo!$B$173</definedName>
+    <definedName name="Eventos">prototipo!$B$149</definedName>
+    <definedName name="iniciodeusuario">prototipo!$B$32</definedName>
+    <definedName name="mostrandoinformacion">prototipo!$B$99</definedName>
+    <definedName name="nuevocomercio">prototipo!$D$2</definedName>
+    <definedName name="nuevoplan">prototipo!$F$67</definedName>
+    <definedName name="panelmenu">prototipo!$P$69</definedName>
+    <definedName name="Planes">prototipo!$B$124</definedName>
+    <definedName name="prototipo1">prototipo!$B$2</definedName>
+    <definedName name="registro">prototipo!$E$32</definedName>
+    <definedName name="Suscriptores">prototipo!$R$99</definedName>
+    <definedName name="Ventas">prototipo!$I$126</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -382,13 +385,67 @@
   </si>
   <si>
     <t>CU014-Listando clases</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Redundante</t>
+  </si>
+  <si>
+    <t>Conflicto</t>
+  </si>
+  <si>
+    <t>CU-1</t>
+  </si>
+  <si>
+    <t>CU-2</t>
+  </si>
+  <si>
+    <t>CU-3</t>
+  </si>
+  <si>
+    <t>CU-4</t>
+  </si>
+  <si>
+    <t>CU-5</t>
+  </si>
+  <si>
+    <t>CU-6</t>
+  </si>
+  <si>
+    <t>CU-7</t>
+  </si>
+  <si>
+    <t>CU-8</t>
+  </si>
+  <si>
+    <t>CU-9</t>
+  </si>
+  <si>
+    <t>CU-10</t>
+  </si>
+  <si>
+    <t>CU-11</t>
+  </si>
+  <si>
+    <t>CU-12</t>
+  </si>
+  <si>
+    <t>CU-13</t>
+  </si>
+  <si>
+    <t>CU-14</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -452,8 +509,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +541,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -582,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,29 +759,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +895,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,25 +1228,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125"/>
-    <col min="2" max="2" width="6.7109375"/>
-    <col min="3" max="3" width="24.28515625"/>
-    <col min="4" max="4" width="20.5703125"/>
-    <col min="5" max="5" width="38.7109375"/>
-    <col min="6" max="6" width="42.28515625"/>
-    <col min="7" max="26" width="8.5703125"/>
+    <col min="1" max="1" width="3.5546875"/>
+    <col min="2" max="2" width="6.6640625"/>
+    <col min="3" max="3" width="24.33203125"/>
+    <col min="4" max="4" width="20.5546875"/>
+    <col min="5" max="5" width="38.6640625"/>
+    <col min="6" max="6" width="42.33203125"/>
+    <col min="7" max="26" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="37" t="s">
         <v>88</v>
@@ -1192,7 +1276,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1220,7 +1304,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -1258,7 +1342,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -1296,7 +1380,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1334,7 +1418,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -1372,7 +1456,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1410,7 +1494,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -1448,7 +1532,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -1486,7 +1570,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
@@ -1524,7 +1608,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -1562,7 +1646,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="69" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -1600,7 +1684,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -1638,7 +1722,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
         <v>15</v>
@@ -1676,7 +1760,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>16</v>
@@ -1714,7 +1798,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
@@ -1752,7 +1836,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
@@ -1790,7 +1874,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>19</v>
@@ -1828,7 +1912,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="42" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>20</v>
@@ -1865,7 +1949,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="35" t="s">
         <v>69</v>
@@ -1903,7 +1987,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="35" t="s">
         <v>71</v>
@@ -1941,7 +2025,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="35" t="s">
         <v>76</v>
@@ -1979,7 +2063,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="35" t="s">
         <v>79</v>
@@ -2017,7 +2101,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="69" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="35" t="s">
         <v>81</v>
@@ -2055,7 +2139,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="35" t="s">
         <v>84</v>
@@ -2093,7 +2177,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="35" t="s">
         <v>94</v>
@@ -2131,7 +2215,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2159,7 +2243,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -2187,7 +2271,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -2215,7 +2299,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -2243,7 +2327,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -2271,7 +2355,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2299,7 +2383,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -2327,7 +2411,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -2355,7 +2439,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -2383,7 +2467,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -2411,7 +2495,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -2439,7 +2523,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -2467,7 +2551,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2495,7 +2579,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -2523,7 +2607,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2551,7 +2635,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -2579,7 +2663,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2607,7 +2691,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2635,7 +2719,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2663,7 +2747,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2691,7 +2775,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2719,7 +2803,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2747,7 +2831,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2775,7 +2859,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2803,7 +2887,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2831,7 +2915,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2859,7 +2943,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2887,7 +2971,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2915,7 +2999,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -2943,7 +3027,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -2971,7 +3055,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2999,7 +3083,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -3027,7 +3111,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -3055,7 +3139,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -3083,7 +3167,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -3111,7 +3195,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -3139,7 +3223,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -3167,7 +3251,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -3195,7 +3279,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -3223,7 +3307,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -3251,7 +3335,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -3279,7 +3363,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -3307,7 +3391,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -3335,7 +3419,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -3363,7 +3447,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -3391,7 +3475,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -3419,7 +3503,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -3447,7 +3531,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -3475,7 +3559,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -3503,7 +3587,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -3531,7 +3615,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -3559,7 +3643,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -3587,7 +3671,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -3615,7 +3699,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -3644,7 +3728,7 @@
       <c r="Z80" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F3"/>
+  <autoFilter ref="B3:F3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
@@ -3654,28 +3738,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125"/>
-    <col min="2" max="2" width="6.140625"/>
-    <col min="3" max="3" width="26.42578125"/>
-    <col min="4" max="4" width="31.42578125"/>
+    <col min="1" max="1" width="3.5546875"/>
+    <col min="2" max="2" width="6.109375"/>
+    <col min="3" max="3" width="26.44140625"/>
+    <col min="4" max="4" width="31.44140625"/>
     <col min="5" max="5" width="50"/>
-    <col min="6" max="6" width="36.85546875"/>
-    <col min="7" max="7" width="35.85546875"/>
-    <col min="8" max="8" width="12.140625"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="26" width="8.5703125"/>
+    <col min="6" max="6" width="36.88671875"/>
+    <col min="7" max="7" width="35.88671875"/>
+    <col min="8" max="8" width="12.109375"/>
+    <col min="9" max="9" width="15.6640625"/>
+    <col min="10" max="26" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="37" t="s">
         <v>49</v>
@@ -3705,7 +3789,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3733,7 +3817,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -3777,7 +3861,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="36" t="s">
         <v>5</v>
@@ -3800,7 +3884,7 @@
       <c r="H4" s="38">
         <v>1</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="2"/>
@@ -3821,7 +3905,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="35" t="s">
         <v>6</v>
@@ -3840,7 +3924,7 @@
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="40"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3859,7 +3943,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="36" t="s">
         <v>7</v>
@@ -3876,13 +3960,13 @@
       <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="38">
         <v>2</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="2"/>
@@ -3903,7 +3987,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="35" t="s">
         <v>69</v>
@@ -3920,9 +4004,9 @@
       <c r="F7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3941,7 +4025,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="35" t="s">
         <v>8</v>
@@ -3958,13 +4042,13 @@
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H8" s="38">
         <v>3</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="2"/>
@@ -3985,7 +4069,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="35" t="s">
         <v>9</v>
@@ -4002,9 +4086,9 @@
       <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="40"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -4023,7 +4107,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="35" t="s">
         <v>10</v>
@@ -4067,7 +4151,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="35" t="s">
         <v>11</v>
@@ -4084,13 +4168,13 @@
       <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>92</v>
       </c>
       <c r="H11" s="38">
         <v>1</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="2"/>
@@ -4111,7 +4195,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="35" t="s">
         <v>12</v>
@@ -4128,9 +4212,9 @@
       <c r="F12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="40"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -4149,7 +4233,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="35" t="s">
         <v>13</v>
@@ -4193,7 +4277,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="35" t="s">
         <v>14</v>
@@ -4237,7 +4321,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="35" t="s">
         <v>15</v>
@@ -4275,7 +4359,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="35" t="s">
         <v>16</v>
@@ -4319,7 +4403,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="35" t="s">
         <v>17</v>
@@ -4336,13 +4420,13 @@
       <c r="F17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="42">
         <v>3</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="44" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="2"/>
@@ -4363,7 +4447,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="35" t="s">
         <v>18</v>
@@ -4380,9 +4464,9 @@
       <c r="F18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="46"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -4401,7 +4485,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="35" t="s">
         <v>19</v>
@@ -4418,7 +4502,7 @@
       <c r="F19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="38">
@@ -4445,7 +4529,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="35" t="s">
         <v>20</v>
@@ -4462,7 +4546,7 @@
       <c r="F20" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="2"/>
@@ -4483,7 +4567,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="35" t="s">
         <v>76</v>
@@ -4527,7 +4611,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="35" t="s">
         <v>71</v>
@@ -4571,7 +4655,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="35" t="s">
         <v>79</v>
@@ -4609,7 +4693,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="35" t="s">
         <v>81</v>
@@ -4653,7 +4737,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="35" t="s">
         <v>84</v>
@@ -4691,7 +4775,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="35" t="s">
         <v>94</v>
@@ -4735,16 +4819,16 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="34"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -4763,16 +4847,16 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="34"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4791,16 +4875,16 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="34"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -4819,16 +4903,16 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="34"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4847,16 +4931,16 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="34"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -4875,16 +4959,16 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="30"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -4903,16 +4987,16 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="30"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -4931,16 +5015,16 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="30"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -4959,16 +5043,16 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="30"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -4987,16 +5071,16 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="30"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -5015,16 +5099,16 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="30"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -5043,16 +5127,16 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="30"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -5071,16 +5155,16 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="30"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -5099,16 +5183,16 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="30"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -5127,16 +5211,16 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="30"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -5155,16 +5239,16 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="30"/>
       <c r="F42" s="22"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="46"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -5183,16 +5267,16 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="30"/>
       <c r="F43" s="22"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -5211,16 +5295,16 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="30"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -5239,16 +5323,16 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="30"/>
       <c r="F45" s="22"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -5267,16 +5351,16 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="30"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -5295,16 +5379,16 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="30"/>
       <c r="F47" s="22"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -5323,16 +5407,16 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="30"/>
       <c r="F48" s="22"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -5351,16 +5435,16 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="30"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -5379,16 +5463,16 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="30"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -5407,16 +5491,16 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="31"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -5435,16 +5519,16 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="30"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -5463,16 +5547,16 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="30"/>
       <c r="F53" s="22"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -5491,16 +5575,16 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="30"/>
       <c r="F54" s="22"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -5519,7 +5603,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -5527,7 +5611,7 @@
       <c r="E55" s="24"/>
       <c r="F55" s="20"/>
       <c r="G55" s="24"/>
-      <c r="H55" s="41"/>
+      <c r="H55" s="43"/>
       <c r="I55" s="24"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -5547,7 +5631,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -5555,7 +5639,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="20"/>
       <c r="G56" s="24"/>
-      <c r="H56" s="41"/>
+      <c r="H56" s="43"/>
       <c r="I56" s="24"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5575,16 +5659,16 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="19"/>
       <c r="E57" s="24"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -5603,16 +5687,16 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -5631,16 +5715,16 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="19"/>
       <c r="E59" s="24"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -5659,16 +5743,16 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="19"/>
       <c r="E60" s="24"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -5687,7 +5771,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -5715,7 +5799,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -5743,7 +5827,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -5771,7 +5855,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -5799,7 +5883,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -5827,7 +5911,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -5855,7 +5939,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
@@ -5883,16 +5967,16 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="24"/>
-      <c r="C68" s="41"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="19"/>
       <c r="E68" s="24"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -5911,16 +5995,16 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="41"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -5939,16 +6023,16 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="41"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="19"/>
       <c r="E70" s="24"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -5967,16 +6051,16 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="41"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -5995,16 +6079,16 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="19"/>
       <c r="E72" s="24"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -6023,16 +6107,16 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="41"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="19"/>
       <c r="E73" s="24"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -6051,16 +6135,16 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="41"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -6079,7 +6163,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
@@ -6089,934 +6173,929 @@
       <c r="H75" s="33"/>
       <c r="I75" s="33"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="H73:H74"/>
@@ -7078,6 +7157,7 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
@@ -7087,11 +7167,15 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" location="prototipo1" display="Prototipo"/>
+    <hyperlink ref="I4" location="prototipo1" display="Prototipo" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7099,22 +7183,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125"/>
-    <col min="2" max="2" width="39.7109375"/>
-    <col min="3" max="6" width="9.5703125"/>
-    <col min="7" max="26" width="8.5703125"/>
+    <col min="1" max="1" width="6.44140625"/>
+    <col min="2" max="2" width="39.6640625"/>
+    <col min="3" max="6" width="9.5546875"/>
+    <col min="7" max="26" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>26</v>
@@ -7144,1008 +7228,2816 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F41246-714C-4BF5-9133-83BC161AB2BB}">
+  <dimension ref="B2:Y30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="48"/>
+      <c r="C2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47">
+        <v>1</v>
+      </c>
+      <c r="E3" s="47">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47">
+        <v>1</v>
+      </c>
+      <c r="G3" s="47">
+        <v>1</v>
+      </c>
+      <c r="H3" s="47">
+        <v>1</v>
+      </c>
+      <c r="I3" s="47">
+        <v>1</v>
+      </c>
+      <c r="J3" s="47">
+        <v>1</v>
+      </c>
+      <c r="K3" s="47">
+        <v>1</v>
+      </c>
+      <c r="L3" s="47">
+        <v>1</v>
+      </c>
+      <c r="M3" s="47">
+        <v>1</v>
+      </c>
+      <c r="N3" s="47">
+        <v>1</v>
+      </c>
+      <c r="O3" s="47">
+        <v>1</v>
+      </c>
+      <c r="P3" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>1</v>
+      </c>
+      <c r="R3" s="47">
+        <v>1</v>
+      </c>
+      <c r="S3" s="47">
+        <v>1</v>
+      </c>
+      <c r="T3" s="47">
+        <v>1</v>
+      </c>
+      <c r="U3" s="47">
+        <v>1</v>
+      </c>
+      <c r="V3" s="47">
+        <v>1</v>
+      </c>
+      <c r="W3" s="47">
+        <v>1</v>
+      </c>
+      <c r="X3" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47">
+        <v>1</v>
+      </c>
+      <c r="F4" s="47">
+        <v>1</v>
+      </c>
+      <c r="G4" s="47">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47">
+        <v>1</v>
+      </c>
+      <c r="I4" s="47">
+        <v>1</v>
+      </c>
+      <c r="J4" s="47">
+        <v>1</v>
+      </c>
+      <c r="K4" s="47">
+        <v>1</v>
+      </c>
+      <c r="L4" s="47">
+        <v>1</v>
+      </c>
+      <c r="M4" s="47">
+        <v>1</v>
+      </c>
+      <c r="N4" s="47">
+        <v>1</v>
+      </c>
+      <c r="O4" s="47">
+        <v>1</v>
+      </c>
+      <c r="P4" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>1</v>
+      </c>
+      <c r="R4" s="47">
+        <v>1</v>
+      </c>
+      <c r="S4" s="47">
+        <v>1</v>
+      </c>
+      <c r="T4" s="47">
+        <v>1</v>
+      </c>
+      <c r="U4" s="47">
+        <v>1</v>
+      </c>
+      <c r="V4" s="47">
+        <v>1</v>
+      </c>
+      <c r="W4" s="47">
+        <v>1</v>
+      </c>
+      <c r="X4" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47">
+        <v>1</v>
+      </c>
+      <c r="H5" s="47">
+        <v>1</v>
+      </c>
+      <c r="I5" s="47">
+        <v>1</v>
+      </c>
+      <c r="J5" s="47">
+        <v>1</v>
+      </c>
+      <c r="K5" s="47">
+        <v>1</v>
+      </c>
+      <c r="L5" s="47">
+        <v>1</v>
+      </c>
+      <c r="M5" s="47">
+        <v>1</v>
+      </c>
+      <c r="N5" s="47">
+        <v>1</v>
+      </c>
+      <c r="O5" s="47">
+        <v>1</v>
+      </c>
+      <c r="P5" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>1</v>
+      </c>
+      <c r="R5" s="47">
+        <v>1</v>
+      </c>
+      <c r="S5" s="47">
+        <v>1</v>
+      </c>
+      <c r="T5" s="47">
+        <v>1</v>
+      </c>
+      <c r="U5" s="47">
+        <v>1</v>
+      </c>
+      <c r="V5" s="47">
+        <v>1</v>
+      </c>
+      <c r="W5" s="47">
+        <v>1</v>
+      </c>
+      <c r="X5" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50">
+        <v>2</v>
+      </c>
+      <c r="H6" s="47">
+        <v>1</v>
+      </c>
+      <c r="I6" s="47">
+        <v>1</v>
+      </c>
+      <c r="J6" s="47">
+        <v>1</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1</v>
+      </c>
+      <c r="L6" s="47">
+        <v>1</v>
+      </c>
+      <c r="M6" s="47">
+        <v>1</v>
+      </c>
+      <c r="N6" s="47">
+        <v>1</v>
+      </c>
+      <c r="O6" s="47">
+        <v>1</v>
+      </c>
+      <c r="P6" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>1</v>
+      </c>
+      <c r="R6" s="47">
+        <v>1</v>
+      </c>
+      <c r="S6" s="47">
+        <v>1</v>
+      </c>
+      <c r="T6" s="47">
+        <v>1</v>
+      </c>
+      <c r="U6" s="47">
+        <v>1</v>
+      </c>
+      <c r="V6" s="47">
+        <v>1</v>
+      </c>
+      <c r="W6" s="47">
+        <v>1</v>
+      </c>
+      <c r="X6" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
+        <v>1</v>
+      </c>
+      <c r="I7" s="47">
+        <v>1</v>
+      </c>
+      <c r="J7" s="47">
+        <v>1</v>
+      </c>
+      <c r="K7" s="47">
+        <v>1</v>
+      </c>
+      <c r="L7" s="47">
+        <v>1</v>
+      </c>
+      <c r="M7" s="47">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47">
+        <v>1</v>
+      </c>
+      <c r="O7" s="47">
+        <v>1</v>
+      </c>
+      <c r="P7" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>1</v>
+      </c>
+      <c r="R7" s="47">
+        <v>1</v>
+      </c>
+      <c r="S7" s="47">
+        <v>1</v>
+      </c>
+      <c r="T7" s="47">
+        <v>1</v>
+      </c>
+      <c r="U7" s="47">
+        <v>1</v>
+      </c>
+      <c r="V7" s="47">
+        <v>1</v>
+      </c>
+      <c r="W7" s="47">
+        <v>1</v>
+      </c>
+      <c r="X7" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47">
+        <v>1</v>
+      </c>
+      <c r="J8" s="47">
+        <v>1</v>
+      </c>
+      <c r="K8" s="47">
+        <v>1</v>
+      </c>
+      <c r="L8" s="47">
+        <v>1</v>
+      </c>
+      <c r="M8" s="47">
+        <v>1</v>
+      </c>
+      <c r="N8" s="47">
+        <v>1</v>
+      </c>
+      <c r="O8" s="47">
+        <v>1</v>
+      </c>
+      <c r="P8" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="47">
+        <v>1</v>
+      </c>
+      <c r="R8" s="47">
+        <v>1</v>
+      </c>
+      <c r="S8" s="47">
+        <v>1</v>
+      </c>
+      <c r="T8" s="47">
+        <v>1</v>
+      </c>
+      <c r="U8" s="47">
+        <v>1</v>
+      </c>
+      <c r="V8" s="47">
+        <v>1</v>
+      </c>
+      <c r="W8" s="47">
+        <v>1</v>
+      </c>
+      <c r="X8" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47">
+        <v>1</v>
+      </c>
+      <c r="K9" s="47">
+        <v>1</v>
+      </c>
+      <c r="L9" s="47">
+        <v>1</v>
+      </c>
+      <c r="M9" s="47">
+        <v>1</v>
+      </c>
+      <c r="N9" s="47">
+        <v>1</v>
+      </c>
+      <c r="O9" s="47">
+        <v>1</v>
+      </c>
+      <c r="P9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="47">
+        <v>1</v>
+      </c>
+      <c r="R9" s="47">
+        <v>1</v>
+      </c>
+      <c r="S9" s="47">
+        <v>1</v>
+      </c>
+      <c r="T9" s="47">
+        <v>1</v>
+      </c>
+      <c r="U9" s="47">
+        <v>1</v>
+      </c>
+      <c r="V9" s="47">
+        <v>1</v>
+      </c>
+      <c r="W9" s="47">
+        <v>1</v>
+      </c>
+      <c r="X9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47">
+        <v>1</v>
+      </c>
+      <c r="L10" s="47">
+        <v>1</v>
+      </c>
+      <c r="M10" s="47">
+        <v>1</v>
+      </c>
+      <c r="N10" s="47">
+        <v>1</v>
+      </c>
+      <c r="O10" s="47">
+        <v>1</v>
+      </c>
+      <c r="P10" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="47">
+        <v>1</v>
+      </c>
+      <c r="R10" s="47">
+        <v>1</v>
+      </c>
+      <c r="S10" s="47">
+        <v>1</v>
+      </c>
+      <c r="T10" s="47">
+        <v>1</v>
+      </c>
+      <c r="U10" s="47">
+        <v>1</v>
+      </c>
+      <c r="V10" s="47">
+        <v>1</v>
+      </c>
+      <c r="W10" s="47">
+        <v>1</v>
+      </c>
+      <c r="X10" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47">
+        <v>1</v>
+      </c>
+      <c r="M11" s="47">
+        <v>1</v>
+      </c>
+      <c r="N11" s="47">
+        <v>1</v>
+      </c>
+      <c r="O11" s="47">
+        <v>1</v>
+      </c>
+      <c r="P11" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>1</v>
+      </c>
+      <c r="R11" s="47">
+        <v>1</v>
+      </c>
+      <c r="S11" s="47">
+        <v>1</v>
+      </c>
+      <c r="T11" s="47">
+        <v>1</v>
+      </c>
+      <c r="U11" s="47">
+        <v>1</v>
+      </c>
+      <c r="V11" s="47">
+        <v>1</v>
+      </c>
+      <c r="W11" s="47">
+        <v>1</v>
+      </c>
+      <c r="X11" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47">
+        <v>1</v>
+      </c>
+      <c r="N12" s="47">
+        <v>1</v>
+      </c>
+      <c r="O12" s="47">
+        <v>1</v>
+      </c>
+      <c r="P12" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="47">
+        <v>1</v>
+      </c>
+      <c r="R12" s="47">
+        <v>1</v>
+      </c>
+      <c r="S12" s="47">
+        <v>1</v>
+      </c>
+      <c r="T12" s="47">
+        <v>1</v>
+      </c>
+      <c r="U12" s="47">
+        <v>1</v>
+      </c>
+      <c r="V12" s="47">
+        <v>1</v>
+      </c>
+      <c r="W12" s="47">
+        <v>1</v>
+      </c>
+      <c r="X12" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47">
+        <v>1</v>
+      </c>
+      <c r="O13" s="47">
+        <v>1</v>
+      </c>
+      <c r="P13" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="47">
+        <v>1</v>
+      </c>
+      <c r="R13" s="47">
+        <v>1</v>
+      </c>
+      <c r="S13" s="47">
+        <v>1</v>
+      </c>
+      <c r="T13" s="47">
+        <v>1</v>
+      </c>
+      <c r="U13" s="47">
+        <v>1</v>
+      </c>
+      <c r="V13" s="47">
+        <v>1</v>
+      </c>
+      <c r="W13" s="47">
+        <v>1</v>
+      </c>
+      <c r="X13" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47">
+        <v>1</v>
+      </c>
+      <c r="P14" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="47">
+        <v>1</v>
+      </c>
+      <c r="R14" s="47">
+        <v>1</v>
+      </c>
+      <c r="S14" s="47">
+        <v>1</v>
+      </c>
+      <c r="T14" s="47">
+        <v>1</v>
+      </c>
+      <c r="U14" s="47">
+        <v>1</v>
+      </c>
+      <c r="V14" s="47">
+        <v>1</v>
+      </c>
+      <c r="W14" s="47">
+        <v>1</v>
+      </c>
+      <c r="X14" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>1</v>
+      </c>
+      <c r="R15" s="47">
+        <v>1</v>
+      </c>
+      <c r="S15" s="47">
+        <v>1</v>
+      </c>
+      <c r="T15" s="47">
+        <v>1</v>
+      </c>
+      <c r="U15" s="47">
+        <v>1</v>
+      </c>
+      <c r="V15" s="47">
+        <v>1</v>
+      </c>
+      <c r="W15" s="47">
+        <v>1</v>
+      </c>
+      <c r="X15" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47">
+        <v>1</v>
+      </c>
+      <c r="R16" s="47">
+        <v>1</v>
+      </c>
+      <c r="S16" s="47">
+        <v>1</v>
+      </c>
+      <c r="T16" s="47">
+        <v>1</v>
+      </c>
+      <c r="U16" s="47">
+        <v>1</v>
+      </c>
+      <c r="V16" s="47">
+        <v>1</v>
+      </c>
+      <c r="W16" s="47">
+        <v>1</v>
+      </c>
+      <c r="X16" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47">
+        <v>1</v>
+      </c>
+      <c r="S17" s="47">
+        <v>1</v>
+      </c>
+      <c r="T17" s="47">
+        <v>1</v>
+      </c>
+      <c r="U17" s="47">
+        <v>1</v>
+      </c>
+      <c r="V17" s="47">
+        <v>1</v>
+      </c>
+      <c r="W17" s="47">
+        <v>1</v>
+      </c>
+      <c r="X17" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47">
+        <v>1</v>
+      </c>
+      <c r="T18" s="47">
+        <v>1</v>
+      </c>
+      <c r="U18" s="47">
+        <v>1</v>
+      </c>
+      <c r="V18" s="47">
+        <v>1</v>
+      </c>
+      <c r="W18" s="47">
+        <v>1</v>
+      </c>
+      <c r="X18" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47">
+        <v>1</v>
+      </c>
+      <c r="U19" s="47">
+        <v>1</v>
+      </c>
+      <c r="V19" s="47">
+        <v>1</v>
+      </c>
+      <c r="W19" s="47">
+        <v>1</v>
+      </c>
+      <c r="X19" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47">
+        <v>1</v>
+      </c>
+      <c r="V20" s="47">
+        <v>1</v>
+      </c>
+      <c r="W20" s="47">
+        <v>1</v>
+      </c>
+      <c r="X20" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47">
+        <v>1</v>
+      </c>
+      <c r="W21" s="47">
+        <v>1</v>
+      </c>
+      <c r="X21" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47">
+        <v>1</v>
+      </c>
+      <c r="X22" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E28" s="49">
+        <v>1</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E29" s="49">
+        <v>2</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E30" s="49">
+        <v>3</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAAAACB-AD89-4A59-BBB6-1321848E6BAB}">
+  <dimension ref="B2:P25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>